--- a/xlsx/原始社会_intext.xlsx
+++ b/xlsx/原始社会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>原始社会</t>
   </si>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>舊石器時代</t>
+    <t>旧石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%99%A8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>中石器時代</t>
+    <t>中石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E6%97%B6%E4%BB%A3</t>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>新石器時代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%A9%9A</t>
@@ -1075,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1101,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1130,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1159,10 +1156,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1188,10 +1185,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1217,10 +1214,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1246,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1275,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1304,10 +1301,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1333,10 +1330,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1362,10 +1359,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1391,10 +1388,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1420,10 +1417,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1449,10 +1446,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1478,10 +1475,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1507,10 +1504,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1536,10 +1533,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1565,10 +1562,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1594,10 +1591,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1623,10 +1620,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1652,10 +1649,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1681,10 +1678,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -1710,10 +1707,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1739,10 +1736,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1768,10 +1765,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1797,10 +1794,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1826,10 +1823,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>

--- a/xlsx/原始社会_intext.xlsx
+++ b/xlsx/原始社会_intext.xlsx
@@ -29,7 +29,7 @@
     <t>民族</t>
   </si>
   <si>
-    <t>政策_政策_行政_原始社会</t>
+    <t>体育运动_体育运动_文化_原始社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E7%8E%87</t>
